--- a/Analysis/CV Data Analysis.xlsx
+++ b/Analysis/CV Data Analysis.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d033e4df2e0e342/Documents/JHU/2020 Fall/Computer_Vision-jpsoong/Final_Project/finger_detection/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_ADFAC430BA4DD35BB790AE8A79AD758D91BCA300" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{ABB44E96-814D-4330-908B-BF226A453C2A}"/>
   <bookViews>
-    <workbookView xWindow="570" yWindow="3450" windowWidth="21915" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
     <sheet name="Validation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="22">
   <si>
     <t>Person (S#)</t>
   </si>
@@ -39,6 +33,9 @@
   </si>
   <si>
     <t>CV Method</t>
+  </si>
+  <si>
+    <t>GT</t>
   </si>
   <si>
     <t>S1</t>
@@ -89,8 +86,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,14 +150,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -207,7 +196,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,27 +228,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,24 +262,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -484,23 +437,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G219"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,16 +463,19 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -542,16 +489,19 @@
       <c r="G2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -565,16 +515,19 @@
       <c r="G3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -588,16 +541,19 @@
       <c r="G4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -611,16 +567,19 @@
       <c r="G5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -634,16 +593,19 @@
       <c r="G6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7">
         <v>5</v>
@@ -657,16 +619,19 @@
       <c r="G7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -680,16 +645,19 @@
       <c r="G8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -703,16 +671,19 @@
       <c r="G9">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -726,16 +697,19 @@
       <c r="G10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -749,16 +723,19 @@
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -772,16 +749,19 @@
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -795,16 +775,19 @@
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -818,16 +801,19 @@
       <c r="G14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -841,16 +827,19 @@
       <c r="G15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -864,16 +853,19 @@
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -887,16 +879,19 @@
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -910,16 +905,19 @@
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -933,16 +931,19 @@
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -956,16 +957,19 @@
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -979,16 +983,19 @@
       <c r="G21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -1002,16 +1009,19 @@
       <c r="G22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -1025,16 +1035,19 @@
       <c r="G23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -1048,16 +1061,19 @@
       <c r="G24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -1071,16 +1087,19 @@
       <c r="G25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D26">
         <v>4</v>
@@ -1094,16 +1113,19 @@
       <c r="G26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -1117,16 +1139,19 @@
       <c r="G27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -1140,16 +1165,19 @@
       <c r="G28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D29">
         <v>3</v>
@@ -1163,16 +1191,19 @@
       <c r="G29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D30">
         <v>3</v>
@@ -1186,16 +1217,19 @@
       <c r="G30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D31">
         <v>5</v>
@@ -1209,16 +1243,19 @@
       <c r="G31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D32">
         <v>5</v>
@@ -1232,16 +1269,19 @@
       <c r="G32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D33">
         <v>5</v>
@@ -1255,16 +1295,19 @@
       <c r="G33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D34">
         <v>5</v>
@@ -1278,16 +1321,19 @@
       <c r="G34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1301,16 +1347,19 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1324,16 +1373,19 @@
       <c r="G36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -1347,16 +1399,19 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -1370,16 +1425,19 @@
       <c r="G38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1393,16 +1451,19 @@
       <c r="G39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -1416,16 +1477,19 @@
       <c r="G40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D41">
         <v>2</v>
@@ -1439,16 +1503,19 @@
       <c r="G41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -1462,16 +1529,19 @@
       <c r="G42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -1485,16 +1555,19 @@
       <c r="G43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D44">
         <v>2</v>
@@ -1508,16 +1581,19 @@
       <c r="G44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D45">
         <v>2</v>
@@ -1531,16 +1607,19 @@
       <c r="G45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -1554,16 +1633,19 @@
       <c r="G46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -1577,16 +1659,19 @@
       <c r="G47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -1600,16 +1685,19 @@
       <c r="G48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -1623,16 +1711,19 @@
       <c r="G49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -1646,16 +1737,19 @@
       <c r="G50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -1669,16 +1763,19 @@
       <c r="G51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D52">
         <v>4</v>
@@ -1692,16 +1789,19 @@
       <c r="G52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -1715,16 +1815,19 @@
       <c r="G53">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -1738,16 +1841,19 @@
       <c r="G54">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D55">
         <v>3</v>
@@ -1761,16 +1867,19 @@
       <c r="G55">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -1784,16 +1893,19 @@
       <c r="G56">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -1807,16 +1919,19 @@
       <c r="G57">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -1830,16 +1945,19 @@
       <c r="G58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D59">
         <v>3</v>
@@ -1853,16 +1971,19 @@
       <c r="G59">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D60">
         <v>3</v>
@@ -1876,16 +1997,19 @@
       <c r="G60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D61">
         <v>5</v>
@@ -1899,16 +2023,19 @@
       <c r="G61">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D62">
         <v>5</v>
@@ -1922,16 +2049,19 @@
       <c r="G62">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D63">
         <v>5</v>
@@ -1945,16 +2075,19 @@
       <c r="G63">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D64">
         <v>5</v>
@@ -1968,16 +2101,19 @@
       <c r="G64">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -1991,16 +2127,19 @@
       <c r="G65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -2014,16 +2153,19 @@
       <c r="G66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -2037,16 +2179,19 @@
       <c r="G67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -2060,16 +2205,19 @@
       <c r="G68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -2083,16 +2231,19 @@
       <c r="G69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -2106,16 +2257,19 @@
       <c r="G70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -2129,16 +2283,19 @@
       <c r="G71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -2152,16 +2309,19 @@
       <c r="G72">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -2175,16 +2335,19 @@
       <c r="G73">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D74">
         <v>2</v>
@@ -2198,16 +2361,19 @@
       <c r="G74">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D75">
         <v>2</v>
@@ -2221,16 +2387,19 @@
       <c r="G75">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D76">
         <v>2</v>
@@ -2244,16 +2413,19 @@
       <c r="G76">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D77">
         <v>2</v>
@@ -2267,16 +2439,19 @@
       <c r="G77">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D78">
         <v>2</v>
@@ -2290,16 +2465,19 @@
       <c r="G78">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79">
         <v>3</v>
@@ -2313,16 +2491,19 @@
       <c r="G79">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D80">
         <v>3</v>
@@ -2336,16 +2517,19 @@
       <c r="G80">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D81">
         <v>3</v>
@@ -2359,16 +2543,19 @@
       <c r="G81">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D82">
         <v>3</v>
@@ -2382,16 +2569,19 @@
       <c r="G82">
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83">
         <v>3</v>
@@ -2405,16 +2595,19 @@
       <c r="G83">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84">
         <v>3</v>
@@ -2428,16 +2621,19 @@
       <c r="G84">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D85">
         <v>5</v>
@@ -2451,16 +2647,19 @@
       <c r="G85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D86">
         <v>5</v>
@@ -2474,16 +2673,19 @@
       <c r="G86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D87">
         <v>5</v>
@@ -2497,16 +2699,19 @@
       <c r="G87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D88">
         <v>5</v>
@@ -2520,16 +2725,19 @@
       <c r="G88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D89">
         <v>5</v>
@@ -2543,16 +2751,19 @@
       <c r="G89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D90">
         <v>0</v>
@@ -2566,16 +2777,19 @@
       <c r="G90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D91">
         <v>0</v>
@@ -2589,16 +2803,19 @@
       <c r="G91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D92">
         <v>0</v>
@@ -2612,16 +2829,19 @@
       <c r="G92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D93">
         <v>0</v>
@@ -2635,16 +2855,19 @@
       <c r="G93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -2658,16 +2881,19 @@
       <c r="G94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -2681,16 +2907,19 @@
       <c r="G95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -2704,16 +2933,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -2727,16 +2959,19 @@
       <c r="G97">
         <v>2</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D98">
         <v>2</v>
@@ -2750,16 +2985,19 @@
       <c r="G98">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -2773,16 +3011,19 @@
       <c r="G99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -2796,16 +3037,19 @@
       <c r="G100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -2819,16 +3063,19 @@
       <c r="G101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -2842,16 +3089,19 @@
       <c r="G102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -2865,16 +3115,19 @@
       <c r="G103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -2888,16 +3141,19 @@
       <c r="G104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -2911,16 +3167,19 @@
       <c r="G105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -2934,16 +3193,19 @@
       <c r="G106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -2957,16 +3219,19 @@
       <c r="G107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -2980,16 +3245,19 @@
       <c r="G108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -3003,16 +3271,19 @@
       <c r="G109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D110">
         <v>4</v>
@@ -3026,16 +3297,19 @@
       <c r="G110">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D111">
         <v>4</v>
@@ -3049,16 +3323,19 @@
       <c r="G111">
         <v>2</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D112">
         <v>4</v>
@@ -3072,16 +3349,19 @@
       <c r="G112">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D113">
         <v>4</v>
@@ -3095,16 +3375,19 @@
       <c r="G113">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D114">
         <v>4</v>
@@ -3118,16 +3401,19 @@
       <c r="G114">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D115">
         <v>3</v>
@@ -3141,16 +3427,19 @@
       <c r="G115">
         <v>3</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D116">
         <v>3</v>
@@ -3164,16 +3453,19 @@
       <c r="G116">
         <v>3</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D117">
         <v>3</v>
@@ -3187,16 +3479,19 @@
       <c r="G117">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D118">
         <v>3</v>
@@ -3210,16 +3505,19 @@
       <c r="G118">
         <v>3</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D119">
         <v>3</v>
@@ -3233,16 +3531,19 @@
       <c r="G119">
         <v>3</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D120">
         <v>5</v>
@@ -3256,16 +3557,19 @@
       <c r="G120">
         <v>5</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D121">
         <v>5</v>
@@ -3279,16 +3583,19 @@
       <c r="G121">
         <v>5</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D122">
         <v>5</v>
@@ -3302,16 +3609,19 @@
       <c r="G122">
         <v>5</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D123">
         <v>5</v>
@@ -3325,16 +3635,19 @@
       <c r="G123">
         <v>5</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D124">
         <v>5</v>
@@ -3348,16 +3661,19 @@
       <c r="G124">
         <v>5</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -3371,16 +3687,19 @@
       <c r="G125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -3394,16 +3713,19 @@
       <c r="G126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -3417,16 +3739,19 @@
       <c r="G127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -3440,16 +3765,19 @@
       <c r="G128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -3463,16 +3791,19 @@
       <c r="G129">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -3486,16 +3817,19 @@
       <c r="G130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -3509,16 +3843,19 @@
       <c r="G131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -3532,16 +3869,19 @@
       <c r="G132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -3555,16 +3895,19 @@
       <c r="G133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -3578,16 +3921,19 @@
       <c r="G134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -3601,16 +3947,19 @@
       <c r="G135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -3624,16 +3973,19 @@
       <c r="G136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D137">
         <v>2</v>
@@ -3647,16 +3999,19 @@
       <c r="G137">
         <v>2</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -3670,16 +4025,19 @@
       <c r="G138">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D139">
         <v>2</v>
@@ -3693,16 +4051,19 @@
       <c r="G139">
         <v>2</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D140">
         <v>2</v>
@@ -3716,16 +4077,19 @@
       <c r="G140">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D141">
         <v>3</v>
@@ -3739,16 +4103,19 @@
       <c r="G141">
         <v>3</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D142">
         <v>3</v>
@@ -3762,16 +4129,19 @@
       <c r="G142">
         <v>3</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D143">
         <v>5</v>
@@ -3785,16 +4155,19 @@
       <c r="G143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D144">
         <v>5</v>
@@ -3808,16 +4181,19 @@
       <c r="G144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D145">
         <v>5</v>
@@ -3831,16 +4207,19 @@
       <c r="G145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H145">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D146">
         <v>5</v>
@@ -3854,16 +4233,19 @@
       <c r="G146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D147">
         <v>0</v>
@@ -3877,16 +4259,19 @@
       <c r="G147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D148">
         <v>0</v>
@@ -3900,16 +4285,19 @@
       <c r="G148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D149">
         <v>0</v>
@@ -3923,16 +4311,19 @@
       <c r="G149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D150">
         <v>2</v>
@@ -3946,16 +4337,19 @@
       <c r="G150">
         <v>2</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D151">
         <v>2</v>
@@ -3969,16 +4363,19 @@
       <c r="G151">
         <v>2</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H151">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D152">
         <v>2</v>
@@ -3992,16 +4389,19 @@
       <c r="G152">
         <v>2</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H152">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D153">
         <v>2</v>
@@ -4015,16 +4415,19 @@
       <c r="G153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D154">
         <v>2</v>
@@ -4038,16 +4441,19 @@
       <c r="G154">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D155">
         <v>2</v>
@@ -4061,16 +4467,19 @@
       <c r="G155">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D156">
         <v>2</v>
@@ -4084,16 +4493,19 @@
       <c r="G156">
         <v>2</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -4107,16 +4519,19 @@
       <c r="G157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -4130,16 +4545,19 @@
       <c r="G158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -4153,16 +4571,19 @@
       <c r="G159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -4176,16 +4597,19 @@
       <c r="G160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -4199,16 +4623,19 @@
       <c r="G161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D162">
         <v>4</v>
@@ -4222,16 +4649,19 @@
       <c r="G162">
         <v>4</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D163">
         <v>4</v>
@@ -4245,16 +4675,19 @@
       <c r="G163">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D164">
         <v>4</v>
@@ -4268,16 +4701,19 @@
       <c r="G164">
         <v>3</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H164">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D165">
         <v>4</v>
@@ -4291,16 +4727,19 @@
       <c r="G165">
         <v>2</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D166">
         <v>3</v>
@@ -4314,16 +4753,19 @@
       <c r="G166">
         <v>2</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D167">
         <v>3</v>
@@ -4337,16 +4779,19 @@
       <c r="G167">
         <v>3</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D168">
         <v>3</v>
@@ -4360,16 +4805,19 @@
       <c r="G168">
         <v>3</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D169">
         <v>5</v>
@@ -4383,16 +4831,19 @@
       <c r="G169">
         <v>5</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D170">
         <v>5</v>
@@ -4406,16 +4857,19 @@
       <c r="G170">
         <v>5</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H170">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D171">
         <v>5</v>
@@ -4429,16 +4883,19 @@
       <c r="G171">
         <v>5</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D172">
         <v>5</v>
@@ -4452,16 +4909,19 @@
       <c r="G172">
         <v>5</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H172">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D173">
         <v>5</v>
@@ -4475,16 +4935,19 @@
       <c r="G173">
         <v>5</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H173">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D174">
         <v>5</v>
@@ -4498,16 +4961,19 @@
       <c r="G174">
         <v>5</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D175">
         <v>5</v>
@@ -4521,16 +4987,19 @@
       <c r="G175">
         <v>5</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H175">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D176">
         <v>5</v>
@@ -4544,16 +5013,19 @@
       <c r="G176">
         <v>5</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -4567,16 +5039,19 @@
       <c r="G177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -4590,16 +5065,19 @@
       <c r="G178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -4613,16 +5091,19 @@
       <c r="G179">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D180">
         <v>1</v>
@@ -4636,16 +5117,19 @@
       <c r="G180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C181" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -4659,16 +5143,19 @@
       <c r="G181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C182" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D182">
         <v>1</v>
@@ -4682,16 +5169,19 @@
       <c r="G182">
         <v>2</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C183" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -4705,16 +5195,19 @@
       <c r="G183">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C184" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -4728,16 +5221,19 @@
       <c r="G184">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C185" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -4751,16 +5247,19 @@
       <c r="G185">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C186" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D186">
         <v>1</v>
@@ -4774,16 +5273,19 @@
       <c r="G186">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C187" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -4797,16 +5299,19 @@
       <c r="G187">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C188" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D188">
         <v>3</v>
@@ -4820,16 +5325,19 @@
       <c r="G188">
         <v>2</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C189" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D189">
         <v>2</v>
@@ -4843,16 +5351,19 @@
       <c r="G189">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D190">
         <v>2</v>
@@ -4866,16 +5377,19 @@
       <c r="G190">
         <v>2</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C191" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D191">
         <v>2</v>
@@ -4889,16 +5403,19 @@
       <c r="G191">
         <v>2</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H191">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C192" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D192">
         <v>2</v>
@@ -4912,16 +5429,19 @@
       <c r="G192">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C193" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D193">
         <v>2</v>
@@ -4935,16 +5455,19 @@
       <c r="G193">
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C194" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D194">
         <v>2</v>
@@ -4958,16 +5481,19 @@
       <c r="G194">
         <v>2</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H194">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C195" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D195">
         <v>2</v>
@@ -4981,16 +5507,19 @@
       <c r="G195">
         <v>2</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C196" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D196">
         <v>3</v>
@@ -5004,16 +5533,19 @@
       <c r="G196">
         <v>3</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C197" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D197">
         <v>3</v>
@@ -5027,16 +5559,19 @@
       <c r="G197">
         <v>3</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C198" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D198">
         <v>5</v>
@@ -5050,16 +5585,19 @@
       <c r="G198">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C199" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D199">
         <v>0</v>
@@ -5073,16 +5611,19 @@
       <c r="G199">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H199">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C200" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D200">
         <v>5</v>
@@ -5096,16 +5637,19 @@
       <c r="G200">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H200">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C201" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D201">
         <v>0</v>
@@ -5119,16 +5663,19 @@
       <c r="G201">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C202" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D202">
         <v>0</v>
@@ -5142,16 +5689,19 @@
       <c r="G202">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C203" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -5165,16 +5715,19 @@
       <c r="G203">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C204" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D204">
         <v>0</v>
@@ -5188,16 +5741,19 @@
       <c r="G204">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C205" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D205">
         <v>2</v>
@@ -5211,16 +5767,19 @@
       <c r="G205">
         <v>2</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H205">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C206" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D206">
         <v>2</v>
@@ -5234,16 +5793,19 @@
       <c r="G206">
         <v>2</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C207" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D207">
         <v>2</v>
@@ -5257,16 +5819,19 @@
       <c r="G207">
         <v>2</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C208" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D208">
         <v>2</v>
@@ -5280,16 +5845,19 @@
       <c r="G208">
         <v>2</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H208">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C209" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D209">
         <v>3</v>
@@ -5303,16 +5871,19 @@
       <c r="G209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C210" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D210">
         <v>1</v>
@@ -5326,16 +5897,19 @@
       <c r="G210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C211" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -5349,16 +5923,19 @@
       <c r="G211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C212" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -5372,16 +5949,19 @@
       <c r="G212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C213" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D213">
         <v>4</v>
@@ -5395,16 +5975,19 @@
       <c r="G213">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H213">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C214" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D214">
         <v>4</v>
@@ -5418,16 +6001,19 @@
       <c r="G214">
         <v>3</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H214">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C215" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D215">
         <v>4</v>
@@ -5441,16 +6027,19 @@
       <c r="G215">
         <v>4</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H215">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C216" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D216">
         <v>4</v>
@@ -5464,16 +6053,19 @@
       <c r="G216">
         <v>3</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H216">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C217" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D217">
         <v>3</v>
@@ -5487,16 +6079,19 @@
       <c r="G217">
         <v>4</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C218" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D218">
         <v>3</v>
@@ -5510,16 +6105,19 @@
       <c r="G218">
         <v>3</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C219" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D219">
         <v>3</v>
@@ -5532,6 +6130,9 @@
       </c>
       <c r="G219">
         <v>4</v>
+      </c>
+      <c r="H219">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -5540,14 +6141,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G140"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5566,16 +6167,19 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>5</v>
@@ -5589,16 +6193,19 @@
       <c r="G2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -5612,16 +6219,19 @@
       <c r="G3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5635,16 +6245,19 @@
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5658,16 +6271,19 @@
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -5681,16 +6297,19 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5704,16 +6323,19 @@
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -5727,16 +6349,19 @@
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5750,16 +6375,19 @@
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -5773,16 +6401,19 @@
       <c r="G10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -5796,16 +6427,19 @@
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -5819,16 +6453,19 @@
       <c r="G12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -5842,16 +6479,19 @@
       <c r="G13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -5865,16 +6505,19 @@
       <c r="G14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>5</v>
@@ -5888,16 +6531,19 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16">
         <v>5</v>
@@ -5911,16 +6557,19 @@
       <c r="G16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <v>5</v>
@@ -5934,16 +6583,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D18">
         <v>5</v>
@@ -5957,16 +6609,19 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D19">
         <v>5</v>
@@ -5980,16 +6635,19 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20">
         <v>5</v>
@@ -6003,16 +6661,19 @@
       <c r="G20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -6026,16 +6687,19 @@
       <c r="G21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -6049,16 +6713,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -6072,16 +6739,19 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -6095,16 +6765,19 @@
       <c r="G24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -6118,16 +6791,19 @@
       <c r="G25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -6141,16 +6817,19 @@
       <c r="G26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -6164,16 +6843,19 @@
       <c r="G27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -6187,16 +6869,19 @@
       <c r="G28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -6210,16 +6895,19 @@
       <c r="G29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -6233,16 +6921,19 @@
       <c r="G30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -6256,16 +6947,19 @@
       <c r="G31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -6279,16 +6973,19 @@
       <c r="G32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -6302,16 +6999,19 @@
       <c r="G33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -6325,16 +7025,19 @@
       <c r="G34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D35">
         <v>4</v>
@@ -6348,16 +7051,19 @@
       <c r="G35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -6371,16 +7077,19 @@
       <c r="G36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -6394,16 +7103,19 @@
       <c r="G37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D38">
         <v>5</v>
@@ -6417,16 +7129,19 @@
       <c r="G38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D39">
         <v>5</v>
@@ -6440,16 +7155,19 @@
       <c r="G39">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D40">
         <v>5</v>
@@ -6463,16 +7181,19 @@
       <c r="G40">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D41">
         <v>5</v>
@@ -6486,16 +7207,19 @@
       <c r="G41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D42">
         <v>5</v>
@@ -6509,16 +7233,19 @@
       <c r="G42">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -6532,16 +7259,19 @@
       <c r="G43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -6555,16 +7285,19 @@
       <c r="G44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -6578,16 +7311,19 @@
       <c r="G45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -6601,16 +7337,19 @@
       <c r="G46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -6624,16 +7363,19 @@
       <c r="G47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48">
         <v>2</v>
@@ -6647,16 +7389,19 @@
       <c r="G48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49">
         <v>2</v>
@@ -6670,16 +7415,19 @@
       <c r="G49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D50">
         <v>2</v>
@@ -6693,16 +7441,19 @@
       <c r="G50">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -6716,16 +7467,19 @@
       <c r="G51">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -6739,16 +7493,19 @@
       <c r="G52">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -6762,16 +7519,19 @@
       <c r="G53">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -6785,16 +7545,19 @@
       <c r="G54">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D55">
         <v>5</v>
@@ -6808,16 +7571,19 @@
       <c r="G55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D56">
         <v>5</v>
@@ -6831,16 +7597,19 @@
       <c r="G56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D57">
         <v>5</v>
@@ -6854,16 +7623,19 @@
       <c r="G57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -6877,16 +7649,19 @@
       <c r="G58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -6900,16 +7675,19 @@
       <c r="G59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D60">
         <v>2</v>
@@ -6923,16 +7701,19 @@
       <c r="G60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D61">
         <v>2</v>
@@ -6946,16 +7727,19 @@
       <c r="G61">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D62">
         <v>2</v>
@@ -6969,16 +7753,19 @@
       <c r="G62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -6992,16 +7779,19 @@
       <c r="G63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -7015,16 +7805,19 @@
       <c r="G64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -7038,16 +7831,19 @@
       <c r="G65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -7061,16 +7857,19 @@
       <c r="G66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D67">
         <v>4</v>
@@ -7084,16 +7883,19 @@
       <c r="G67">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D68">
         <v>4</v>
@@ -7107,16 +7909,19 @@
       <c r="G68">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D69">
         <v>4</v>
@@ -7130,16 +7935,19 @@
       <c r="G69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D70">
         <v>3</v>
@@ -7153,16 +7961,19 @@
       <c r="G70">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D71">
         <v>3</v>
@@ -7176,16 +7987,19 @@
       <c r="G71">
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D72">
         <v>3</v>
@@ -7199,16 +8013,19 @@
       <c r="G72">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D73">
         <v>3</v>
@@ -7222,16 +8039,19 @@
       <c r="G73">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D74">
         <v>5</v>
@@ -7245,16 +8065,19 @@
       <c r="G74">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D75">
         <v>5</v>
@@ -7268,16 +8091,19 @@
       <c r="G75">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D76">
         <v>5</v>
@@ -7291,16 +8117,19 @@
       <c r="G76">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -7314,16 +8143,19 @@
       <c r="G77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -7337,16 +8169,19 @@
       <c r="G78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -7360,16 +8195,19 @@
       <c r="G79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -7383,16 +8221,19 @@
       <c r="G80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -7406,16 +8247,19 @@
       <c r="G81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -7429,16 +8273,19 @@
       <c r="G82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -7452,16 +8299,19 @@
       <c r="G83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D84">
         <v>2</v>
@@ -7475,16 +8325,19 @@
       <c r="G84">
         <v>2</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D85">
         <v>2</v>
@@ -7498,16 +8351,19 @@
       <c r="G85">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D86">
         <v>2</v>
@@ -7521,16 +8377,19 @@
       <c r="G86">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D87">
         <v>3</v>
@@ -7544,16 +8403,19 @@
       <c r="G87">
         <v>3</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D88">
         <v>5</v>
@@ -7567,16 +8429,19 @@
       <c r="G88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D89">
         <v>5</v>
@@ -7590,16 +8455,19 @@
       <c r="G89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D90">
         <v>5</v>
@@ -7613,16 +8481,19 @@
       <c r="G90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D91">
         <v>5</v>
@@ -7636,16 +8507,19 @@
       <c r="G91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D92">
         <v>5</v>
@@ -7659,16 +8533,19 @@
       <c r="G92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D93">
         <v>5</v>
@@ -7682,16 +8559,19 @@
       <c r="G93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D94">
         <v>0</v>
@@ -7705,16 +8585,19 @@
       <c r="G94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D95">
         <v>0</v>
@@ -7728,16 +8611,19 @@
       <c r="G95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D96">
         <v>0</v>
@@ -7751,16 +8637,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D97">
         <v>0</v>
@@ -7774,16 +8663,19 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D98">
         <v>0</v>
@@ -7797,16 +8689,19 @@
       <c r="G98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D99">
         <v>0</v>
@@ -7820,16 +8715,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D100">
         <v>0</v>
@@ -7843,16 +8741,19 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D101">
         <v>2</v>
@@ -7866,16 +8767,19 @@
       <c r="G101">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -7889,16 +8793,19 @@
       <c r="G102">
         <v>2</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -7912,16 +8819,19 @@
       <c r="G103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -7935,16 +8845,19 @@
       <c r="G104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -7958,16 +8871,19 @@
       <c r="G105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D106">
         <v>4</v>
@@ -7981,16 +8897,19 @@
       <c r="G106">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D107">
         <v>4</v>
@@ -8004,16 +8923,19 @@
       <c r="G107">
         <v>3</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D108">
         <v>4</v>
@@ -8027,16 +8949,19 @@
       <c r="G108">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D109">
         <v>4</v>
@@ -8050,16 +8975,19 @@
       <c r="G109">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D110">
         <v>4</v>
@@ -8073,16 +9001,19 @@
       <c r="G110">
         <v>2</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D111">
         <v>4</v>
@@ -8096,16 +9027,19 @@
       <c r="G111">
         <v>3</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D112">
         <v>4</v>
@@ -8119,16 +9053,19 @@
       <c r="G112">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D113">
         <v>3</v>
@@ -8142,16 +9079,19 @@
       <c r="G113">
         <v>2</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H113">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D114">
         <v>3</v>
@@ -8165,16 +9105,19 @@
       <c r="G114">
         <v>2</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D115">
         <v>3</v>
@@ -8188,16 +9131,19 @@
       <c r="G115">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D116">
         <v>5</v>
@@ -8211,16 +9157,19 @@
       <c r="G116">
         <v>5</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D117">
         <v>5</v>
@@ -8234,16 +9183,19 @@
       <c r="G117">
         <v>5</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -8257,16 +9209,19 @@
       <c r="G118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -8280,16 +9235,19 @@
       <c r="G119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -8303,16 +9261,19 @@
       <c r="G120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C121" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -8326,16 +9287,19 @@
       <c r="G121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D122">
         <v>2</v>
@@ -8349,16 +9313,19 @@
       <c r="G122">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -8372,16 +9339,19 @@
       <c r="G123">
         <v>2</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H123">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D124">
         <v>3</v>
@@ -8395,16 +9365,19 @@
       <c r="G124">
         <v>3</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C125" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D125">
         <v>3</v>
@@ -8418,16 +9391,19 @@
       <c r="G125">
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D126">
         <v>3</v>
@@ -8441,16 +9417,19 @@
       <c r="G126">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C127" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D127">
         <v>3</v>
@@ -8464,16 +9443,19 @@
       <c r="G127">
         <v>3</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C128" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D128">
         <v>5</v>
@@ -8487,16 +9469,19 @@
       <c r="G128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H128">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C129" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D129">
         <v>5</v>
@@ -8510,16 +9495,19 @@
       <c r="G129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C130" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D130">
         <v>5</v>
@@ -8533,16 +9521,19 @@
       <c r="G130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C131" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D131">
         <v>5</v>
@@ -8556,16 +9547,19 @@
       <c r="G131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D132">
         <v>0</v>
@@ -8579,16 +9573,19 @@
       <c r="G132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C133" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D133">
         <v>2</v>
@@ -8602,16 +9599,19 @@
       <c r="G133">
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C134" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D134">
         <v>2</v>
@@ -8625,16 +9625,19 @@
       <c r="G134">
         <v>2</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H134">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C135" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -8648,16 +9651,19 @@
       <c r="G135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C136" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -8671,16 +9677,19 @@
       <c r="G136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C137" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D137">
         <v>4</v>
@@ -8694,16 +9703,19 @@
       <c r="G137">
         <v>3</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C138" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D138">
         <v>4</v>
@@ -8717,16 +9729,19 @@
       <c r="G138">
         <v>4</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C139" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D139">
         <v>4</v>
@@ -8740,16 +9755,19 @@
       <c r="G139">
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C140" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D140">
         <v>3</v>
@@ -8762,6 +9780,9 @@
       </c>
       <c r="G140">
         <v>4</v>
+      </c>
+      <c r="H140">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Analysis/CV Data Analysis.xlsx
+++ b/Analysis/CV Data Analysis.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6d033e4df2e0e342/Documents/JHU/2020 Fall/Computer_Vision-jpsoong/Final_Project/finger_detection/Analysis/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="114_{FF29CC47-0B01-488E-8175-EBA755E92D65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="570" yWindow="3450" windowWidth="21915" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test" sheetId="1" r:id="rId1"/>
     <sheet name="Validation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -86,8 +92,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,6 +156,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -196,7 +210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -228,9 +242,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,6 +294,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -437,14 +487,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H219"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -493,7 +543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -519,7 +569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -545,7 +595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -571,7 +621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -597,7 +647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,7 +673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,7 +699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -675,7 +725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -701,7 +751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -727,7 +777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -753,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -779,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -805,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -831,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -857,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -883,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -909,7 +959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -935,7 +985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -961,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -987,7 +1037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1013,7 +1063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1039,7 +1089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1065,7 +1115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1091,7 +1141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1117,7 +1167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1143,7 +1193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1169,7 +1219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1195,7 +1245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1221,7 +1271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1247,7 +1297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1273,7 +1323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1299,7 +1349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1325,7 +1375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1351,7 +1401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1377,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1403,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1429,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1455,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1481,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1507,7 +1557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1533,7 +1583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1559,7 +1609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1585,7 +1635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1611,7 +1661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1637,7 +1687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1663,7 +1713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1689,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1715,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1741,7 +1791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1767,7 +1817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1793,7 +1843,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1819,7 +1869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1845,7 +1895,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1871,7 +1921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1897,7 +1947,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1923,7 +1973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1949,7 +1999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1975,7 +2025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2001,7 +2051,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2027,7 +2077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2053,7 +2103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2079,7 +2129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2105,7 +2155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2131,7 +2181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2157,7 +2207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2183,7 +2233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2209,7 +2259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2235,7 +2285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2261,7 +2311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2287,7 +2337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2313,7 +2363,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2339,7 +2389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2365,7 +2415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2391,7 +2441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2417,7 +2467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2443,7 +2493,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2469,7 +2519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2495,7 +2545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2521,7 +2571,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2547,7 +2597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2573,7 +2623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2599,7 +2649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2625,7 +2675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2651,7 +2701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2677,7 +2727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2703,7 +2753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2729,7 +2779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2755,7 +2805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2781,7 +2831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2807,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2833,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2859,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2885,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2911,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2937,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2963,7 +3013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2989,7 +3039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3015,7 +3065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3041,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3067,7 +3117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3093,7 +3143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3119,7 +3169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3145,7 +3195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3171,7 +3221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3197,7 +3247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3223,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3249,7 +3299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3275,7 +3325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3301,7 +3351,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3327,7 +3377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3353,7 +3403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3379,7 +3429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3405,7 +3455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3431,7 +3481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3457,7 +3507,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3483,7 +3533,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3509,7 +3559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3535,7 +3585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3561,7 +3611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3587,7 +3637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3613,7 +3663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3639,7 +3689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3665,7 +3715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3691,7 +3741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3717,7 +3767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3743,7 +3793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3769,7 +3819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3795,7 +3845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3821,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3847,7 +3897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3873,7 +3923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3899,7 +3949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3925,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3951,7 +4001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3977,7 +4027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4003,7 +4053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4029,7 +4079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4055,7 +4105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4081,7 +4131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4107,7 +4157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4133,7 +4183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4159,7 +4209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4185,7 +4235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4211,7 +4261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4237,7 +4287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4263,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4289,7 +4339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4315,7 +4365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4341,7 +4391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4367,7 +4417,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4393,7 +4443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4419,7 +4469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -4445,7 +4495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4471,7 +4521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4497,7 +4547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4523,7 +4573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4549,7 +4599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:8">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4575,7 +4625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:8">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4601,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:8">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4627,7 +4677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4653,7 +4703,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:8">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4679,7 +4729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4705,7 +4755,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4731,7 +4781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4757,7 +4807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4783,7 +4833,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4809,7 +4859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4835,7 +4885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4861,7 +4911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4887,7 +4937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4913,7 +4963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4939,7 +4989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4965,7 +5015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4991,7 +5041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -5017,7 +5067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -5043,7 +5093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -5069,7 +5119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -5095,7 +5145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -5121,7 +5171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -5147,7 +5197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -5173,7 +5223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -5199,7 +5249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -5225,7 +5275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -5251,7 +5301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -5277,7 +5327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -5303,7 +5353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -5329,7 +5379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -5355,7 +5405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -5381,7 +5431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -5407,7 +5457,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -5433,7 +5483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -5459,7 +5509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -5485,7 +5535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -5511,7 +5561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:8">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -5537,7 +5587,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:8">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -5563,7 +5613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:8">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -5589,7 +5639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -5615,7 +5665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:8">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -5641,7 +5691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -5667,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -5693,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -5719,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -5745,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -5771,7 +5821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -5797,7 +5847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -5823,7 +5873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -5849,7 +5899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -5875,7 +5925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -5901,7 +5951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -5927,7 +5977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -5953,7 +6003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -5979,7 +6029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -6005,7 +6055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -6031,7 +6081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -6057,7 +6107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -6083,7 +6133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -6109,7 +6159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -6141,14 +6191,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6171,7 +6221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6197,7 +6247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6223,7 +6273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6249,7 +6299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6275,7 +6325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6301,7 +6351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6327,7 +6377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6353,7 +6403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6379,7 +6429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6405,7 +6455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6431,7 +6481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6457,7 +6507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6483,7 +6533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6509,7 +6559,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6535,7 +6585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6561,7 +6611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6587,7 +6637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6613,7 +6663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6639,7 +6689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6665,7 +6715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6691,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6717,7 +6767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6743,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6769,7 +6819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6795,7 +6845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -6821,7 +6871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -6847,7 +6897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -6873,7 +6923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -6899,7 +6949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -6925,7 +6975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -6951,7 +7001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -6977,7 +7027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -7003,7 +7053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -7029,7 +7079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -7055,7 +7105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -7081,7 +7131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -7107,7 +7157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -7133,7 +7183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -7159,7 +7209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -7185,7 +7235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -7211,7 +7261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -7237,7 +7287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -7263,7 +7313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -7289,7 +7339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -7315,7 +7365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -7341,7 +7391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -7367,7 +7417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -7393,7 +7443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -7419,7 +7469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -7445,7 +7495,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -7471,7 +7521,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -7497,7 +7547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -7523,7 +7573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -7549,7 +7599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -7575,7 +7625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -7601,7 +7651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -7627,7 +7677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -7653,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -7679,7 +7729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -7705,7 +7755,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -7731,7 +7781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -7757,7 +7807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -7783,7 +7833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -7809,7 +7859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -7835,7 +7885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -7861,7 +7911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -7887,7 +7937,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -7913,7 +7963,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -7939,7 +7989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -7965,7 +8015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -7991,7 +8041,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -8017,7 +8067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -8043,7 +8093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -8069,7 +8119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -8095,7 +8145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -8121,7 +8171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -8147,7 +8197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -8173,7 +8223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -8199,7 +8249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -8225,7 +8275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -8251,7 +8301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -8277,7 +8327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -8303,7 +8353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -8329,7 +8379,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:8">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -8355,7 +8405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:8">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -8381,7 +8431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:8">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -8407,7 +8457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -8433,7 +8483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:8">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -8459,7 +8509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -8485,7 +8535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -8511,7 +8561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -8537,7 +8587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -8563,7 +8613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -8589,7 +8639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -8615,7 +8665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -8641,7 +8691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -8667,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -8693,7 +8743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -8719,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -8745,7 +8795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -8771,7 +8821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -8797,7 +8847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -8823,7 +8873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -8849,7 +8899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -8875,7 +8925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -8901,7 +8951,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -8927,7 +8977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -8953,7 +9003,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -8979,7 +9029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -9005,7 +9055,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -9031,7 +9081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -9057,7 +9107,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -9083,7 +9133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -9109,7 +9159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -9135,7 +9185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -9161,7 +9211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -9187,7 +9237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -9213,7 +9263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -9239,7 +9289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -9265,7 +9315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -9291,7 +9341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -9317,7 +9367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -9343,7 +9393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -9369,7 +9419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -9395,7 +9445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -9421,7 +9471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -9447,7 +9497,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -9473,7 +9523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -9499,7 +9549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -9525,7 +9575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -9551,7 +9601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -9577,7 +9627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -9603,7 +9653,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -9629,7 +9679,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -9655,7 +9705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -9681,7 +9731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -9707,7 +9757,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -9733,7 +9783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -9759,7 +9809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
